--- a/xlsx/motor-6-situp.xlsx
+++ b/xlsx/motor-6-situp.xlsx
@@ -15,294 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
+    <t>felülés</t>
   </si>
 </sst>
 </file>
@@ -336,13 +51,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -649,6 +386,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>7</v>
       </c>
@@ -696,987 +436,987 @@
       <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1">
+        <v>42</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1">
+        <v>46</v>
+      </c>
+      <c r="O2" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
+      <c r="B3" s="1">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1">
+        <v>48</v>
+      </c>
+      <c r="N3" s="1">
+        <v>50</v>
+      </c>
+      <c r="O3" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="B4" s="1">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
-        <v>27</v>
+      <c r="C4" s="1">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1">
+        <v>46</v>
+      </c>
+      <c r="K4" s="1">
+        <v>48</v>
+      </c>
+      <c r="L4" s="1">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1">
+        <v>54</v>
+      </c>
+      <c r="O4" s="1">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="1">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
+      <c r="C5" s="1">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1">
+        <v>52</v>
+      </c>
+      <c r="L5" s="1">
+        <v>53</v>
+      </c>
+      <c r="M5" s="1">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1">
+        <v>58</v>
+      </c>
+      <c r="O5" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="B6" s="1">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
         <v>40</v>
       </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
+      <c r="E6" s="1">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1">
+        <v>54</v>
+      </c>
+      <c r="K6" s="1">
+        <v>56</v>
+      </c>
+      <c r="L6" s="1">
+        <v>57</v>
+      </c>
+      <c r="M6" s="1">
+        <v>60</v>
+      </c>
+      <c r="N6" s="1">
+        <v>62</v>
+      </c>
+      <c r="O6" s="1">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" t="s">
-        <v>46</v>
+      <c r="B7" s="1">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1">
+        <v>58</v>
+      </c>
+      <c r="K7" s="1">
+        <v>60</v>
+      </c>
+      <c r="L7" s="1">
+        <v>61</v>
+      </c>
+      <c r="M7" s="1">
+        <v>64</v>
+      </c>
+      <c r="N7" s="1">
+        <v>66</v>
+      </c>
+      <c r="O7" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="B8" s="1">
         <v>42</v>
       </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="C8" s="1">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1">
         <v>48</v>
       </c>
-      <c r="O8" t="s">
-        <v>49</v>
+      <c r="E8" s="1">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1">
+        <v>62</v>
+      </c>
+      <c r="K8" s="1">
+        <v>64</v>
+      </c>
+      <c r="L8" s="1">
+        <v>65</v>
+      </c>
+      <c r="M8" s="1">
+        <v>68</v>
+      </c>
+      <c r="N8" s="1">
+        <v>70</v>
+      </c>
+      <c r="O8" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="B9" s="1">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1">
         <v>52</v>
       </c>
-      <c r="O9" t="s">
-        <v>53</v>
+      <c r="E9" s="1">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1">
+        <v>61</v>
+      </c>
+      <c r="I9" s="1">
+        <v>63</v>
+      </c>
+      <c r="J9" s="1">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1">
+        <v>67</v>
+      </c>
+      <c r="L9" s="1">
+        <v>69</v>
+      </c>
+      <c r="M9" s="1">
+        <v>71</v>
+      </c>
+      <c r="N9" s="1">
+        <v>73</v>
+      </c>
+      <c r="O9" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="B10" s="1">
         <v>49</v>
       </c>
-      <c r="M10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="C10" s="1">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1">
         <v>55</v>
       </c>
-      <c r="O10" t="s">
-        <v>56</v>
+      <c r="E10" s="1">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1">
+        <v>70</v>
+      </c>
+      <c r="L10" s="1">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1">
+        <v>74</v>
+      </c>
+      <c r="N10" s="1">
+        <v>76</v>
+      </c>
+      <c r="O10" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="B11" s="1">
         <v>52</v>
       </c>
-      <c r="L11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="C11" s="1">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
         <v>58</v>
       </c>
-      <c r="O11" t="s">
-        <v>59</v>
+      <c r="E11" s="1">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1">
+        <v>71</v>
+      </c>
+      <c r="K11" s="1">
+        <v>73</v>
+      </c>
+      <c r="L11" s="1">
+        <v>75</v>
+      </c>
+      <c r="M11" s="1">
+        <v>77</v>
+      </c>
+      <c r="N11" s="1">
+        <v>79</v>
+      </c>
+      <c r="O11" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="B12" s="1">
         <v>55</v>
       </c>
-      <c r="L12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="C12" s="1">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1">
         <v>61</v>
       </c>
-      <c r="O12" t="s">
-        <v>62</v>
+      <c r="E12" s="1">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1">
+        <v>68</v>
+      </c>
+      <c r="H12" s="1">
+        <v>70</v>
+      </c>
+      <c r="I12" s="1">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1">
+        <v>76</v>
+      </c>
+      <c r="L12" s="1">
+        <v>78</v>
+      </c>
+      <c r="M12" s="1">
+        <v>80</v>
+      </c>
+      <c r="N12" s="1">
+        <v>82</v>
+      </c>
+      <c r="O12" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="B13" s="1">
         <v>58</v>
       </c>
-      <c r="L13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="C13" s="1">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1">
         <v>64</v>
       </c>
-      <c r="O13" t="s">
-        <v>65</v>
+      <c r="E13" s="1">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1">
+        <v>71</v>
+      </c>
+      <c r="H13" s="1">
+        <v>73</v>
+      </c>
+      <c r="I13" s="1">
+        <v>75</v>
+      </c>
+      <c r="J13" s="1">
+        <v>77</v>
+      </c>
+      <c r="K13" s="1">
+        <v>79</v>
+      </c>
+      <c r="L13" s="1">
+        <v>81</v>
+      </c>
+      <c r="M13" s="1">
+        <v>83</v>
+      </c>
+      <c r="N13" s="1">
+        <v>85</v>
+      </c>
+      <c r="O13" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="B14" s="1">
         <v>61</v>
       </c>
-      <c r="L14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="C14" s="1">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1">
         <v>67</v>
       </c>
-      <c r="O14" t="s">
-        <v>68</v>
+      <c r="E14" s="1">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1">
+        <v>76</v>
+      </c>
+      <c r="I14" s="1">
+        <v>78</v>
+      </c>
+      <c r="J14" s="1">
+        <v>80</v>
+      </c>
+      <c r="K14" s="1">
+        <v>82</v>
+      </c>
+      <c r="L14" s="1">
+        <v>84</v>
+      </c>
+      <c r="M14" s="1">
+        <v>86</v>
+      </c>
+      <c r="N14" s="1">
+        <v>88</v>
+      </c>
+      <c r="O14" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="B15" s="1">
         <v>64</v>
       </c>
-      <c r="L15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="C15" s="1">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1">
         <v>70</v>
       </c>
-      <c r="O15" t="s">
-        <v>71</v>
+      <c r="E15" s="1">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1">
+        <v>75</v>
+      </c>
+      <c r="G15" s="1">
+        <v>77</v>
+      </c>
+      <c r="H15" s="1">
+        <v>79</v>
+      </c>
+      <c r="I15" s="1">
+        <v>81</v>
+      </c>
+      <c r="J15" s="1">
+        <v>83</v>
+      </c>
+      <c r="K15" s="1">
+        <v>85</v>
+      </c>
+      <c r="L15" s="1">
+        <v>87</v>
+      </c>
+      <c r="M15" s="1">
+        <v>89</v>
+      </c>
+      <c r="N15" s="1">
+        <v>91</v>
+      </c>
+      <c r="O15" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="B16" s="1">
         <v>67</v>
       </c>
-      <c r="L16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="C16" s="1">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1">
         <v>73</v>
       </c>
-      <c r="O16" t="s">
-        <v>74</v>
+      <c r="E16" s="1">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1">
+        <v>78</v>
+      </c>
+      <c r="G16" s="1">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1">
+        <v>82</v>
+      </c>
+      <c r="I16" s="1">
+        <v>84</v>
+      </c>
+      <c r="J16" s="1">
+        <v>86</v>
+      </c>
+      <c r="K16" s="1">
+        <v>88</v>
+      </c>
+      <c r="L16" s="1">
+        <v>90</v>
+      </c>
+      <c r="M16" s="1">
+        <v>92</v>
+      </c>
+      <c r="N16" s="1">
+        <v>94</v>
+      </c>
+      <c r="O16" s="1">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="B17" s="1">
         <v>70</v>
       </c>
-      <c r="L17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="C17" s="1">
+        <v>73</v>
+      </c>
+      <c r="D17" s="1">
         <v>76</v>
       </c>
-      <c r="O17" t="s">
-        <v>77</v>
+      <c r="E17" s="1">
+        <v>79</v>
+      </c>
+      <c r="F17" s="1">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1">
+        <v>83</v>
+      </c>
+      <c r="H17" s="1">
+        <v>85</v>
+      </c>
+      <c r="I17" s="1">
+        <v>87</v>
+      </c>
+      <c r="J17" s="1">
+        <v>89</v>
+      </c>
+      <c r="K17" s="1">
+        <v>91</v>
+      </c>
+      <c r="L17" s="1">
+        <v>93</v>
+      </c>
+      <c r="M17" s="1">
+        <v>95</v>
+      </c>
+      <c r="N17" s="1">
+        <v>97</v>
+      </c>
+      <c r="O17" s="1">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="B18" s="1">
         <v>73</v>
       </c>
-      <c r="L18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="C18" s="1">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
         <v>79</v>
       </c>
-      <c r="O18" t="s">
-        <v>80</v>
+      <c r="E18" s="1">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1">
+        <v>84</v>
+      </c>
+      <c r="G18" s="1">
+        <v>86</v>
+      </c>
+      <c r="H18" s="1">
+        <v>88</v>
+      </c>
+      <c r="I18" s="1">
+        <v>90</v>
+      </c>
+      <c r="J18" s="1">
+        <v>92</v>
+      </c>
+      <c r="K18" s="1">
+        <v>94</v>
+      </c>
+      <c r="L18" s="1">
+        <v>96</v>
+      </c>
+      <c r="M18" s="1">
+        <v>98</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="B19" s="1">
         <v>76</v>
       </c>
-      <c r="L19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" t="s">
-        <v>81</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="C19" s="1">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1">
         <v>82</v>
       </c>
-      <c r="O19" t="s">
-        <v>83</v>
+      <c r="E19" s="1">
+        <v>85</v>
+      </c>
+      <c r="F19" s="1">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1">
+        <v>89</v>
+      </c>
+      <c r="H19" s="1">
+        <v>91</v>
+      </c>
+      <c r="I19" s="1">
+        <v>93</v>
+      </c>
+      <c r="J19" s="1">
+        <v>95</v>
+      </c>
+      <c r="K19" s="1">
+        <v>97</v>
+      </c>
+      <c r="L19" s="1">
+        <v>99</v>
+      </c>
+      <c r="M19" s="1">
+        <v>101</v>
+      </c>
+      <c r="N19" s="1">
+        <v>103</v>
+      </c>
+      <c r="O19" s="1">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="B20" s="1">
         <v>79</v>
       </c>
-      <c r="L20" t="s">
-        <v>80</v>
-      </c>
-      <c r="M20" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="C20" s="1">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1">
         <v>85</v>
       </c>
-      <c r="O20" t="s">
-        <v>86</v>
+      <c r="E20" s="1">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1">
+        <v>90</v>
+      </c>
+      <c r="G20" s="1">
+        <v>92</v>
+      </c>
+      <c r="H20" s="1">
+        <v>94</v>
+      </c>
+      <c r="I20" s="1">
+        <v>96</v>
+      </c>
+      <c r="J20" s="1">
+        <v>98</v>
+      </c>
+      <c r="K20" s="1">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1">
+        <v>102</v>
+      </c>
+      <c r="M20" s="1">
+        <v>104</v>
+      </c>
+      <c r="N20" s="1">
+        <v>106</v>
+      </c>
+      <c r="O20" s="1">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="B21" s="1">
         <v>82</v>
       </c>
-      <c r="L21" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="C21" s="1">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1">
         <v>88</v>
       </c>
-      <c r="O21" t="s">
-        <v>89</v>
+      <c r="E21" s="1">
+        <v>91</v>
+      </c>
+      <c r="F21" s="1">
+        <v>93</v>
+      </c>
+      <c r="G21" s="1">
+        <v>95</v>
+      </c>
+      <c r="H21" s="1">
+        <v>97</v>
+      </c>
+      <c r="I21" s="1">
+        <v>99</v>
+      </c>
+      <c r="J21" s="1">
+        <v>101</v>
+      </c>
+      <c r="K21" s="1">
+        <v>103</v>
+      </c>
+      <c r="L21" s="1">
+        <v>105</v>
+      </c>
+      <c r="M21" s="1">
+        <v>107</v>
+      </c>
+      <c r="N21" s="1">
+        <v>109</v>
+      </c>
+      <c r="O21" s="1">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="B22" s="1">
         <v>85</v>
       </c>
-      <c r="L22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M22" t="s">
-        <v>90</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="C22" s="1">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1">
         <v>91</v>
       </c>
-      <c r="O22" t="s">
-        <v>92</v>
+      <c r="E22" s="1">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1">
+        <v>96</v>
+      </c>
+      <c r="G22" s="1">
+        <v>98</v>
+      </c>
+      <c r="H22" s="1">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1">
+        <v>102</v>
+      </c>
+      <c r="J22" s="1">
+        <v>104</v>
+      </c>
+      <c r="K22" s="1">
+        <v>106</v>
+      </c>
+      <c r="L22" s="1">
+        <v>108</v>
+      </c>
+      <c r="M22" s="1">
+        <v>110</v>
+      </c>
+      <c r="N22" s="1">
+        <v>112</v>
+      </c>
+      <c r="O22" s="1">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2658,6 +2398,11 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="B2:O21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2674,6 +2419,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>7</v>
       </c>
@@ -2721,987 +2469,987 @@
       <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="1">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E2" s="1">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G2" s="1">
         <v>35</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1">
+        <v>47</v>
+      </c>
+      <c r="N2" s="1">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B3" s="1">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="D3" s="1">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
+      <c r="F3" s="1">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1">
+        <v>47</v>
+      </c>
+      <c r="L3" s="1">
+        <v>49</v>
+      </c>
+      <c r="M3" s="1">
+        <v>51</v>
+      </c>
+      <c r="N3" s="1">
+        <v>53</v>
+      </c>
+      <c r="O3" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C4" s="1">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="D4" s="1">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="E4" s="1">
         <v>39</v>
+      </c>
+      <c r="F4" s="1">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1">
+        <v>51</v>
+      </c>
+      <c r="L4" s="1">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1">
+        <v>55</v>
+      </c>
+      <c r="N4" s="1">
+        <v>57</v>
+      </c>
+      <c r="O4" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B5" s="1">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="C5" s="1">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
         <v>43</v>
       </c>
-      <c r="O5" t="s">
-        <v>44</v>
+      <c r="F5" s="1">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1">
+        <v>53</v>
+      </c>
+      <c r="K5" s="1">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1">
+        <v>57</v>
+      </c>
+      <c r="M5" s="1">
+        <v>59</v>
+      </c>
+      <c r="N5" s="1">
+        <v>61</v>
+      </c>
+      <c r="O5" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="B6" s="1">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1">
         <v>44</v>
       </c>
-      <c r="N6" t="s">
+      <c r="E6" s="1">
         <v>47</v>
       </c>
-      <c r="O6" t="s">
-        <v>38</v>
+      <c r="F6" s="1">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1">
+        <v>57</v>
+      </c>
+      <c r="K6" s="1">
+        <v>59</v>
+      </c>
+      <c r="L6" s="1">
+        <v>61</v>
+      </c>
+      <c r="M6" s="1">
+        <v>63</v>
+      </c>
+      <c r="N6" s="1">
+        <v>65</v>
+      </c>
+      <c r="O6" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="B7" s="1">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1">
         <v>51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1">
+        <v>61</v>
+      </c>
+      <c r="K7" s="1">
+        <v>63</v>
+      </c>
+      <c r="L7" s="1">
+        <v>65</v>
+      </c>
+      <c r="M7" s="1">
+        <v>67</v>
+      </c>
+      <c r="N7" s="1">
+        <v>69</v>
+      </c>
+      <c r="O7" s="1">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="B8" s="1">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
-        <v>54</v>
+      <c r="E8" s="1">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1">
+        <v>65</v>
+      </c>
+      <c r="K8" s="1">
+        <v>67</v>
+      </c>
+      <c r="L8" s="1">
+        <v>69</v>
+      </c>
+      <c r="M8" s="1">
+        <v>71</v>
+      </c>
+      <c r="N8" s="1">
+        <v>73</v>
+      </c>
+      <c r="O8" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="B9" s="1">
         <v>50</v>
       </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="C9" s="1">
         <v>53</v>
       </c>
-      <c r="N9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" t="s">
-        <v>57</v>
+      <c r="D9" s="1">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1">
+        <v>65</v>
+      </c>
+      <c r="I9" s="1">
+        <v>67</v>
+      </c>
+      <c r="J9" s="1">
+        <v>69</v>
+      </c>
+      <c r="K9" s="1">
+        <v>71</v>
+      </c>
+      <c r="L9" s="1">
+        <v>73</v>
+      </c>
+      <c r="M9" s="1">
+        <v>75</v>
+      </c>
+      <c r="N9" s="1">
+        <v>76</v>
+      </c>
+      <c r="O9" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="B10" s="1">
         <v>54</v>
       </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="C10" s="1">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1">
         <v>60</v>
+      </c>
+      <c r="E10" s="1">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1">
+        <v>66</v>
+      </c>
+      <c r="H10" s="1">
+        <v>68</v>
+      </c>
+      <c r="I10" s="1">
+        <v>70</v>
+      </c>
+      <c r="J10" s="1">
+        <v>72</v>
+      </c>
+      <c r="K10" s="1">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1">
+        <v>76</v>
+      </c>
+      <c r="M10" s="1">
+        <v>78</v>
+      </c>
+      <c r="N10" s="1">
+        <v>79</v>
+      </c>
+      <c r="O10" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="B11" s="1">
         <v>57</v>
       </c>
-      <c r="L11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="C11" s="1">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
         <v>63</v>
+      </c>
+      <c r="E11" s="1">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1">
+        <v>69</v>
+      </c>
+      <c r="H11" s="1">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1">
+        <v>73</v>
+      </c>
+      <c r="J11" s="1">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1">
+        <v>77</v>
+      </c>
+      <c r="L11" s="1">
+        <v>79</v>
+      </c>
+      <c r="M11" s="1">
+        <v>81</v>
+      </c>
+      <c r="N11" s="1">
+        <v>82</v>
+      </c>
+      <c r="O11" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="B12" s="1">
         <v>60</v>
       </c>
-      <c r="L12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="C12" s="1">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1">
         <v>66</v>
+      </c>
+      <c r="E12" s="1">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1">
+        <v>74</v>
+      </c>
+      <c r="I12" s="1">
+        <v>76</v>
+      </c>
+      <c r="J12" s="1">
+        <v>78</v>
+      </c>
+      <c r="K12" s="1">
+        <v>80</v>
+      </c>
+      <c r="L12" s="1">
+        <v>82</v>
+      </c>
+      <c r="M12" s="1">
+        <v>84</v>
+      </c>
+      <c r="N12" s="1">
+        <v>85</v>
+      </c>
+      <c r="O12" s="1">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="B13" s="1">
         <v>63</v>
       </c>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="C13" s="1">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1">
         <v>69</v>
+      </c>
+      <c r="E13" s="1">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1">
+        <v>75</v>
+      </c>
+      <c r="H13" s="1">
+        <v>77</v>
+      </c>
+      <c r="I13" s="1">
+        <v>79</v>
+      </c>
+      <c r="J13" s="1">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1">
+        <v>83</v>
+      </c>
+      <c r="L13" s="1">
+        <v>85</v>
+      </c>
+      <c r="M13" s="1">
+        <v>87</v>
+      </c>
+      <c r="N13" s="1">
+        <v>88</v>
+      </c>
+      <c r="O13" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="B14" s="1">
         <v>66</v>
       </c>
-      <c r="L14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="C14" s="1">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1">
         <v>72</v>
+      </c>
+      <c r="E14" s="1">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1">
+        <v>80</v>
+      </c>
+      <c r="I14" s="1">
+        <v>82</v>
+      </c>
+      <c r="J14" s="1">
+        <v>84</v>
+      </c>
+      <c r="K14" s="1">
+        <v>86</v>
+      </c>
+      <c r="L14" s="1">
+        <v>88</v>
+      </c>
+      <c r="M14" s="1">
+        <v>90</v>
+      </c>
+      <c r="N14" s="1">
+        <v>91</v>
+      </c>
+      <c r="O14" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="B15" s="1">
         <v>69</v>
       </c>
-      <c r="L15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="C15" s="1">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1">
         <v>75</v>
+      </c>
+      <c r="E15" s="1">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1">
+        <v>83</v>
+      </c>
+      <c r="I15" s="1">
+        <v>85</v>
+      </c>
+      <c r="J15" s="1">
+        <v>87</v>
+      </c>
+      <c r="K15" s="1">
+        <v>89</v>
+      </c>
+      <c r="L15" s="1">
+        <v>91</v>
+      </c>
+      <c r="M15" s="1">
+        <v>93</v>
+      </c>
+      <c r="N15" s="1">
+        <v>94</v>
+      </c>
+      <c r="O15" s="1">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="B16" s="1">
         <v>72</v>
       </c>
-      <c r="L16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="C16" s="1">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1">
         <v>78</v>
+      </c>
+      <c r="E16" s="1">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1">
+        <v>82</v>
+      </c>
+      <c r="G16" s="1">
+        <v>84</v>
+      </c>
+      <c r="H16" s="1">
+        <v>86</v>
+      </c>
+      <c r="I16" s="1">
+        <v>88</v>
+      </c>
+      <c r="J16" s="1">
+        <v>90</v>
+      </c>
+      <c r="K16" s="1">
+        <v>92</v>
+      </c>
+      <c r="L16" s="1">
+        <v>94</v>
+      </c>
+      <c r="M16" s="1">
+        <v>96</v>
+      </c>
+      <c r="N16" s="1">
+        <v>97</v>
+      </c>
+      <c r="O16" s="1">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="B17" s="1">
         <v>75</v>
       </c>
-      <c r="L17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="C17" s="1">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1">
         <v>81</v>
+      </c>
+      <c r="E17" s="1">
+        <v>83</v>
+      </c>
+      <c r="F17" s="1">
+        <v>85</v>
+      </c>
+      <c r="G17" s="1">
+        <v>87</v>
+      </c>
+      <c r="H17" s="1">
+        <v>89</v>
+      </c>
+      <c r="I17" s="1">
+        <v>91</v>
+      </c>
+      <c r="J17" s="1">
+        <v>93</v>
+      </c>
+      <c r="K17" s="1">
+        <v>95</v>
+      </c>
+      <c r="L17" s="1">
+        <v>97</v>
+      </c>
+      <c r="M17" s="1">
+        <v>99</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="B18" s="1">
         <v>78</v>
       </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="C18" s="1">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1">
         <v>84</v>
+      </c>
+      <c r="E18" s="1">
+        <v>86</v>
+      </c>
+      <c r="F18" s="1">
+        <v>88</v>
+      </c>
+      <c r="G18" s="1">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1">
+        <v>92</v>
+      </c>
+      <c r="I18" s="1">
+        <v>94</v>
+      </c>
+      <c r="J18" s="1">
+        <v>96</v>
+      </c>
+      <c r="K18" s="1">
+        <v>98</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>102</v>
+      </c>
+      <c r="N18" s="1">
+        <v>103</v>
+      </c>
+      <c r="O18" s="1">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="B19" s="1">
         <v>81</v>
       </c>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" t="s">
-        <v>83</v>
-      </c>
-      <c r="N19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="C19" s="1">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1">
         <v>87</v>
+      </c>
+      <c r="E19" s="1">
+        <v>89</v>
+      </c>
+      <c r="F19" s="1">
+        <v>91</v>
+      </c>
+      <c r="G19" s="1">
+        <v>93</v>
+      </c>
+      <c r="H19" s="1">
+        <v>95</v>
+      </c>
+      <c r="I19" s="1">
+        <v>97</v>
+      </c>
+      <c r="J19" s="1">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1">
+        <v>101</v>
+      </c>
+      <c r="L19" s="1">
+        <v>103</v>
+      </c>
+      <c r="M19" s="1">
+        <v>105</v>
+      </c>
+      <c r="N19" s="1">
+        <v>106</v>
+      </c>
+      <c r="O19" s="1">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="B20" s="1">
         <v>84</v>
       </c>
-      <c r="L20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" t="s">
-        <v>86</v>
-      </c>
-      <c r="N20" t="s">
-        <v>88</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="C20" s="1">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1">
         <v>90</v>
+      </c>
+      <c r="E20" s="1">
+        <v>92</v>
+      </c>
+      <c r="F20" s="1">
+        <v>94</v>
+      </c>
+      <c r="G20" s="1">
+        <v>96</v>
+      </c>
+      <c r="H20" s="1">
+        <v>98</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1">
+        <v>102</v>
+      </c>
+      <c r="K20" s="1">
+        <v>104</v>
+      </c>
+      <c r="L20" s="1">
+        <v>106</v>
+      </c>
+      <c r="M20" s="1">
+        <v>108</v>
+      </c>
+      <c r="N20" s="1">
+        <v>109</v>
+      </c>
+      <c r="O20" s="1">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="B21" s="1">
         <v>87</v>
       </c>
-      <c r="L21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M21" t="s">
-        <v>89</v>
-      </c>
-      <c r="N21" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="C21" s="1">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1">
         <v>93</v>
+      </c>
+      <c r="E21" s="1">
+        <v>95</v>
+      </c>
+      <c r="F21" s="1">
+        <v>97</v>
+      </c>
+      <c r="G21" s="1">
+        <v>99</v>
+      </c>
+      <c r="H21" s="1">
+        <v>101</v>
+      </c>
+      <c r="I21" s="1">
+        <v>103</v>
+      </c>
+      <c r="J21" s="1">
+        <v>105</v>
+      </c>
+      <c r="K21" s="1">
+        <v>107</v>
+      </c>
+      <c r="L21" s="1">
+        <v>109</v>
+      </c>
+      <c r="M21" s="1">
+        <v>111</v>
+      </c>
+      <c r="N21" s="1">
+        <v>112</v>
+      </c>
+      <c r="O21" s="1">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="B22" s="1">
         <v>90</v>
       </c>
-      <c r="L22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" t="s">
-        <v>94</v>
-      </c>
-      <c r="O22" t="s">
-        <v>95</v>
+      <c r="C22" s="1">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>96</v>
+      </c>
+      <c r="E22" s="1">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>102</v>
+      </c>
+      <c r="H22" s="1">
+        <v>104</v>
+      </c>
+      <c r="I22" s="1">
+        <v>106</v>
+      </c>
+      <c r="J22" s="1">
+        <v>108</v>
+      </c>
+      <c r="K22" s="1">
+        <v>110</v>
+      </c>
+      <c r="L22" s="1">
+        <v>112</v>
+      </c>
+      <c r="M22" s="1">
+        <v>114</v>
+      </c>
+      <c r="N22" s="1">
+        <v>115</v>
+      </c>
+      <c r="O22" s="1">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4683,6 +4431,11 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="B2:O21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/motor-6-situp.xlsx
+++ b/xlsx/motor-6-situp.xlsx
@@ -58,7 +58,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2398,9 +2418,14 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4431,9 +4456,14 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
